--- a/output/outputExec_6.xlsx
+++ b/output/outputExec_6.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrie\Documents\MyProjects\ISEC\CR_MatlabNN\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C208051D-EF18-4CA0-8A62-932CDEA64F08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97805417-3900-4A0E-A661-0FA114EFD62F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10665" activeTab="1" xr2:uid="{5A6ECD0F-1F50-4FBB-9CDC-DB750E382B9F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10665" activeTab="4" xr2:uid="{5585B92D-AA18-4588-BD81-E481B96EF341}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
     <sheet name="Folha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Folha3" sheetId="3" r:id="rId3"/>
+    <sheet name="Folha4" sheetId="4" r:id="rId4"/>
+    <sheet name="Folha5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="27">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -39,13 +42,13 @@
     <t>Nome do Treino</t>
   </si>
   <si>
-    <t>teste111</t>
+    <t>trainolmSetup1_Formas2_1</t>
   </si>
   <si>
     <t>Função Treino</t>
   </si>
   <si>
-    <t>trainscg</t>
+    <t>trainlm</t>
   </si>
   <si>
     <t>Divisao dos Exemplos</t>
@@ -57,12 +60,15 @@
     <t>Nº Neuronios</t>
   </si>
   <si>
-    <t>Função de Activacao</t>
+    <t>Funcao de Activacao</t>
   </si>
   <si>
     <t xml:space="preserve">Funcao de Divisao </t>
   </si>
   <si>
+    <t>dividerand</t>
+  </si>
+  <si>
     <t>Layer 1</t>
   </si>
   <si>
@@ -75,6 +81,9 @@
     <t>Layer 2</t>
   </si>
   <si>
+    <t>purelin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Validation </t>
   </si>
   <si>
@@ -93,25 +102,19 @@
     <t>Precisoa Treino</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Precisao Global</t>
   </si>
   <si>
-    <t>teste2</t>
-  </si>
-  <si>
-    <t>trainlm</t>
-  </si>
-  <si>
-    <t>Funcao de Activacao</t>
-  </si>
-  <si>
-    <t>dividerand</t>
-  </si>
-  <si>
-    <t>purelin</t>
+    <t>trainolmSetup1_Formas2_2</t>
+  </si>
+  <si>
+    <t>trainolmSetup1_Formas2_3</t>
+  </si>
+  <si>
+    <t>trainolmSetup1_Formas2_4</t>
+  </si>
+  <si>
+    <t>trainolmSetup1_Formas2_5</t>
   </si>
 </sst>
 </file>
@@ -463,7 +466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75488DE2-EE7F-4D94-88DE-D3C43E569C2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93F1233-2737-402B-85ED-4AFFF8D37231}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -563,52 +566,52 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -620,15 +623,15 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -648,13 +651,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
@@ -708,10 +711,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>97.52066115702479</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -728,10 +731,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>100</v>
+        <v>99.626865671641795</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -752,7 +755,874 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E21A05-5BD3-4B2D-8EB7-D9342C639146}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B325D6B2-A91E-45F8-B225-97029EB0D215}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36F2AF8-0DE3-4237-AA49-49CA66744F35}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D069A746-9338-496C-9149-83747CF3E995}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E404E6A6-BF38-41B0-B6E5-5B33F1344B4A}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -766,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -800,7 +1670,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -843,7 +1713,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
@@ -852,24 +1722,24 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1">
         <v>0.7</v>
@@ -877,19 +1747,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1">
         <v>0.15</v>
@@ -897,7 +1767,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -909,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1">
         <v>0.15</v>
@@ -917,7 +1787,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -937,13 +1807,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
@@ -997,10 +1867,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>61.157024793388423</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -1017,10 +1887,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>54.228855721393032</v>
+        <v>99.875621890547265</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
